--- a/TestData.xlsx
+++ b/TestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mir\Desktop\GitNote\TrckingFolder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BD14CA4-97D3-4713-A859-49B23C987DBA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AE93D9A-0F46-4B26-A2A8-C42290E74CB0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3000" yWindow="345" windowWidth="19050" windowHeight="12405" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>UserName</t>
   </si>
@@ -43,6 +43,12 @@
   </si>
   <si>
     <t>917-635-6542</t>
+  </si>
+  <si>
+    <t>Mamun</t>
+  </si>
+  <si>
+    <t>mirma@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -371,16 +377,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.85546875" customWidth="1"/>
-    <col min="2" max="2" width="15.7109375" customWidth="1"/>
+    <col min="2" max="2" width="17.7109375" customWidth="1"/>
     <col min="3" max="3" width="14" customWidth="1"/>
   </cols>
   <sheetData>
@@ -406,9 +412,21 @@
         <v>5</v>
       </c>
     </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3">
+        <v>55555555</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" xr:uid="{68F201A7-2776-40E0-842E-5F06A13D5442}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{FD351CDD-03D5-4BB7-BDA7-8A720F54A276}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
